--- a/Eagle/P6_V3/P6_SEEED_BOM.xlsx
+++ b/Eagle/P6_V3/P6_SEEED_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braedin Butler\Desktop\vSpeedVario\Eagle\P6\P6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Braedin Butler\Desktop\vSpeedVario\Eagle\P6_V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Designator</t>
   </si>
@@ -41,30 +41,18 @@
     <t>CL21B104KOANNNC</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>RC0603JR-07100KL</t>
   </si>
   <si>
-    <t>R1, R3</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
     <t>RC0603JR-0710KL</t>
   </si>
   <si>
-    <t>C5, C9</t>
-  </si>
-  <si>
     <t>CL21A106KQCLRNC</t>
   </si>
   <si>
-    <t>C3, C6, C8</t>
-  </si>
-  <si>
     <t>R2, R5, R9, R11</t>
   </si>
   <si>
@@ -198,6 +186,12 @@
   </si>
   <si>
     <t>MS561101BA03-50</t>
+  </si>
+  <si>
+    <t>C3, C5, C6, C8, C9</t>
+  </si>
+  <si>
+    <t>R1, R3, R6</t>
   </si>
 </sst>
 </file>
@@ -561,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,21 +581,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -609,10 +603,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -620,87 +614,87 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -708,10 +702,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -719,54 +713,54 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -774,10 +768,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -785,7 +779,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>317030026</v>
@@ -796,10 +790,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -807,21 +801,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -829,10 +823,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -840,10 +834,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -851,60 +845,41 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:C28">
+    <sortCondition ref="A2:A28"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="B20" r:id="rId1" display="https://www.mouser.com/ProductDetail/Seeed-Studio/317030026?qs=sGAEpiMZZMsGelYiB%252bjhZuSe2l%2fDNpp5yc6q%2fDWaXa86w9cacFjgag%3d%3d"/>
   </hyperlinks>
